--- a/Benchmarks-results/sumowanie wektora metodą redukcji wyniki - Kopia.xlsx
+++ b/Benchmarks-results/sumowanie wektora metodą redukcji wyniki - Kopia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27900" windowHeight="12525"/>
@@ -11,12 +11,12 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>GPU</t>
   </si>
@@ -47,11 +47,17 @@
   <si>
     <t>WORK GROUP</t>
   </si>
+  <si>
+    <t>GWS</t>
+  </si>
+  <si>
+    <t>LWS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -92,12 +98,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -123,11 +144,14 @@
           <c:y val="3.2407407407407406E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -199,6 +223,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -251,13 +276,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.2000000000000003E-5</c:v>
+                  <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5999999999999999E-5</c:v>
+                  <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7000000000000003E-5</c:v>
+                  <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.0999999999999999E-5</c:v>
@@ -271,17 +296,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="109730432"/>
-        <c:axId val="109810432"/>
+        <c:smooth val="0"/>
+        <c:axId val="187719680"/>
+        <c:axId val="187721600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109730432"/>
+        <c:axId val="187719680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -300,21 +335,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109810432"/>
+        <c:crossAx val="187721600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109810432"/>
+        <c:axId val="187721600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -326,6 +365,7 @@
               <c:y val="0.68773986585010216"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="0" vert="horz" anchor="t" anchorCtr="0"/>
             <a:lstStyle/>
@@ -339,13 +379,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="109730432"/>
+        <c:crossAx val="187719680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -353,8 +394,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -366,7 +410,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -390,11 +444,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -466,6 +523,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -538,43 +596,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="117635712"/>
-        <c:axId val="127204352"/>
+        <c:smooth val="0"/>
+        <c:axId val="187760640"/>
+        <c:axId val="187762176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117635712"/>
+        <c:axId val="187760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127204352"/>
+        <c:crossAx val="187762176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127204352"/>
+        <c:axId val="187762176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="117635712"/>
+        <c:crossAx val="187760640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -582,8 +654,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -595,7 +670,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -614,11 +699,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -690,6 +778,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -762,43 +851,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="56388992"/>
-        <c:axId val="56391552"/>
+        <c:smooth val="0"/>
+        <c:axId val="187800576"/>
+        <c:axId val="187802368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56388992"/>
+        <c:axId val="187800576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56391552"/>
+        <c:crossAx val="187802368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56391552"/>
+        <c:axId val="187802368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56388992"/>
+        <c:crossAx val="187800576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -806,8 +909,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -819,7 +925,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -838,11 +954,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -914,6 +1033,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -986,43 +1106,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="105449728"/>
-        <c:axId val="155185536"/>
+        <c:smooth val="0"/>
+        <c:axId val="188098816"/>
+        <c:axId val="188121088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105449728"/>
+        <c:axId val="188098816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155185536"/>
+        <c:crossAx val="188121088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155185536"/>
+        <c:axId val="188121088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="105449728"/>
+        <c:crossAx val="188098816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,8 +1164,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1043,7 +1180,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1062,11 +1209,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1138,6 +1288,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1210,43 +1361,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="103001472"/>
-        <c:axId val="105532032"/>
+        <c:smooth val="0"/>
+        <c:axId val="187893248"/>
+        <c:axId val="187894784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103001472"/>
+        <c:axId val="187893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105532032"/>
+        <c:crossAx val="187894784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105532032"/>
+        <c:axId val="187894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="103001472"/>
+        <c:crossAx val="187893248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,8 +1419,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1267,7 +1435,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1286,11 +1464,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1362,6 +1543,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1434,43 +1616,57 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="162289920"/>
-        <c:axId val="162531200"/>
+        <c:smooth val="0"/>
+        <c:axId val="187933056"/>
+        <c:axId val="187934592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="162289920"/>
+        <c:axId val="187933056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162531200"/>
+        <c:crossAx val="187934592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162531200"/>
+        <c:axId val="187934592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9525">
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="162289920"/>
+        <c:crossAx val="187933056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,8 +1674,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1584,15 +1783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1614,15 +1813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1643,15 +1842,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1749,6 +1948,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1783,6 +1983,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1958,19 +2159,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24" customHeight="1"/>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>32*C3</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1024</v>
+      </c>
+    </row>
     <row r="5" spans="1:15">
       <c r="C5" t="s">
         <v>2</v>
@@ -2015,7 +2235,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="D8">
-        <v>6.2000000000000003E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -2044,7 +2264,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="D9">
-        <v>5.5999999999999999E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -2073,7 +2293,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="D10">
-        <v>5.7000000000000003E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="H10">
         <v>64</v>
@@ -2181,7 +2401,7 @@
         <v>8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:17">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -2191,8 +2411,24 @@
       <c r="M36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="P36">
+        <v>1024</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="P37">
+        <f>P36*2</f>
+        <v>2048</v>
+      </c>
+      <c r="Q37">
+        <f>Q36+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
       <c r="C38" t="s">
         <v>4</v>
       </c>
@@ -2211,8 +2447,16 @@
       <c r="N38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="P38">
+        <f t="shared" ref="P38:P60" si="0">P37*2</f>
+        <v>4096</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q58" si="1">Q37+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
       <c r="B39">
         <v>16</v>
       </c>
@@ -2240,8 +2484,16 @@
       <c r="N39">
         <v>7.5471999999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40">
         <v>32</v>
       </c>
@@ -2269,8 +2521,16 @@
       <c r="N40">
         <v>4.1390000000000003E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
       <c r="B41">
         <v>64</v>
       </c>
@@ -2298,8 +2558,16 @@
       <c r="N41">
         <v>2.3591999999999998E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42">
         <v>128</v>
       </c>
@@ -2327,8 +2595,16 @@
       <c r="N42">
         <v>1.5492000000000001E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
       <c r="B43">
         <v>256</v>
       </c>
@@ -2356,8 +2632,16 @@
       <c r="N43">
         <v>1.5301E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
       <c r="B44">
         <v>1024</v>
       </c>
@@ -2384,6 +2668,166 @@
       </c>
       <c r="N44">
         <v>2.1183E-2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17">
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="16:17">
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="16:17">
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="16:17">
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="16:17">
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="16:17">
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="16:17">
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="16:17">
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="16:17">
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>2147483648</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="16:17">
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>4294967296</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="16:17">
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>8589934592</v>
+      </c>
+    </row>
+    <row r="60" spans="16:17">
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>17179869184</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2405,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
